--- a/medicine/Mort/Cimetière_de_Bardines_(Angoulême)/Cimetière_de_Bardines_(Angoulême).xlsx
+++ b/medicine/Mort/Cimetière_de_Bardines_(Angoulême)/Cimetière_de_Bardines_(Angoulême).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bardines_(Angoul%C3%AAme)</t>
+          <t>Cimetière_de_Bardines_(Angoulême)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Bardines est le cimetière municipal le plus ancien des deux cimetières d'Angoulême en Charente. Il se trouve rue de Saint-Jean-d'Angély[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Bardines est le cimetière municipal le plus ancien des deux cimetières d'Angoulême en Charente. Il se trouve rue de Saint-Jean-d'Angély.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bardines_(Angoul%C3%AAme)</t>
+          <t>Cimetière_de_Bardines_(Angoulême)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce grand cimetière a ouvert en 1808. Il s'étend sur 9,5 hectares[1] selon un plan rectangulaire avec des allées à angle droit. Il a conservé en grande partie ses sépultures anciennes dont ses chapelles familiales du XIXe siècle avec leurs ornements traditionnels et des tombes de notables locaux avec parfois des médaillons. La chapelle néogothique de la famille Croizet-Eymard est remarquable, ainsi que l'immense monument de la famille Albert[2]. Il n'y a aucun arbre ou espace végétalisé dans ce cimetière[2]. Le cimetière de Bardines possède un carré militaire au milieu duquel le monument aux morts, dominé par une figure ailée avec une épée (sculptée par Raoul Verlet), a été érigé en 1901 à l'initiative du général Philebert du souvenir français. Il existe aussi un petit carré israélite.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand cimetière a ouvert en 1808. Il s'étend sur 9,5 hectares selon un plan rectangulaire avec des allées à angle droit. Il a conservé en grande partie ses sépultures anciennes dont ses chapelles familiales du XIXe siècle avec leurs ornements traditionnels et des tombes de notables locaux avec parfois des médaillons. La chapelle néogothique de la famille Croizet-Eymard est remarquable, ainsi que l'immense monument de la famille Albert. Il n'y a aucun arbre ou espace végétalisé dans ce cimetière. Le cimetière de Bardines possède un carré militaire au milieu duquel le monument aux morts, dominé par une figure ailée avec une épée (sculptée par Raoul Verlet), a été érigé en 1901 à l'initiative du général Philebert du souvenir français. Il existe aussi un petit carré israélite.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bardines_(Angoul%C3%AAme)</t>
+          <t>Cimetière_de_Bardines_(Angoulême)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Baptiste François Albert (1759-1837), député de la Charente (chapelle)
 Philippe Albert (1788-1868), député de la Charente, fils du précédent (chapelle)
